--- a/NE_Metadata_Tables.xlsx
+++ b/NE_Metadata_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CTP_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37962C2-F13A-4765-9EBD-B06D61107684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDFE94-D010-40CC-BA2F-0000AF56250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39450" yWindow="1440" windowWidth="16515" windowHeight="17625" firstSheet="1" activeTab="3" xr2:uid="{D6EEE5CD-2A08-4859-8595-D5C57431F601}"/>
+    <workbookView xWindow="480" yWindow="1110" windowWidth="15900" windowHeight="11535" activeTab="3" xr2:uid="{D6EEE5CD-2A08-4859-8595-D5C57431F601}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP Purchase Geographies" sheetId="1" r:id="rId1"/>
@@ -1167,9 +1167,6 @@
     <t>BASE2</t>
   </si>
   <si>
-    <t>Atkins Realis, 2023</t>
-  </si>
-  <si>
     <t>Spillway Locations</t>
   </si>
   <si>
@@ -1183,6 +1180,9 @@
   </si>
   <si>
     <t>Spillways</t>
+  </si>
+  <si>
+    <t>AtkinsRealis, 2023</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3030,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,7 +3042,7 @@
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A767B63F-9B6F-44CA-91EC-B1938B465EB7}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,6 +3795,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="72.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="255.7109375" bestFit="1" customWidth="1"/>
@@ -3871,7 +3872,7 @@
       <c r="H2" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>237</v>
       </c>
       <c r="J2" s="6"/>
@@ -3881,7 +3882,7 @@
       <c r="L2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>237</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -3917,7 +3918,7 @@
       <c r="H3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>245</v>
       </c>
       <c r="J3" s="6"/>
@@ -3927,7 +3928,7 @@
       <c r="L3" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>245</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -3945,13 +3946,13 @@
         <v>373</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>101</v>
@@ -3959,15 +3960,15 @@
       <c r="H4" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>376</v>
+      <c r="I4" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>246</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M4" s="7">
         <v>44927</v>
@@ -3976,10 +3977,10 @@
         <v>366</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/NE_Metadata_Tables.xlsx
+++ b/NE_Metadata_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CTP_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDFE94-D010-40CC-BA2F-0000AF56250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CAAC71-C6E0-4F92-92E3-16A9B8D44DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1110" windowWidth="15900" windowHeight="11535" activeTab="3" xr2:uid="{D6EEE5CD-2A08-4859-8595-D5C57431F601}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{D6EEE5CD-2A08-4859-8595-D5C57431F601}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP Purchase Geographies" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="378">
   <si>
     <t>State</t>
   </si>
@@ -744,21 +744,12 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>2.8.5.6</t>
-  </si>
-  <si>
     <t>AtkinsRealis, 2024</t>
   </si>
   <si>
-    <t>Salt 2D BLE</t>
-  </si>
-  <si>
     <t>Calverton, MD</t>
   </si>
   <si>
-    <t>5/31/2024</t>
-  </si>
-  <si>
     <t>Digital</t>
   </si>
   <si>
@@ -1183,6 +1174,9 @@
   </si>
   <si>
     <t>AtkinsRealis, 2023</t>
+  </si>
+  <si>
+    <t>2.7.5.6</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3024,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,13 +3089,13 @@
         <v>10240006</v>
       </c>
       <c r="G2" s="7">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3124,13 +3118,13 @@
         <v>10240001</v>
       </c>
       <c r="G3" s="7">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3138,7 +3132,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>109</v>
@@ -3153,13 +3147,13 @@
         <v>10200203</v>
       </c>
       <c r="G4" s="7">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3776,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,133 +3848,131 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="I2" s="7">
+        <v>45473</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="M2" s="7">
+        <v>45473</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>44927</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4003,15 +3995,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4019,7 +4011,7 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -4027,7 +4019,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -4035,7 +4027,7 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
@@ -4043,7 +4035,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -4051,7 +4043,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -4059,7 +4051,7 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1">
         <v>13</v>
@@ -4067,7 +4059,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
@@ -4075,7 +4067,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" s="1">
         <v>17</v>
@@ -4083,7 +4075,7 @@
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B11" s="1">
         <v>19</v>
@@ -4091,7 +4083,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B12" s="1">
         <v>21</v>
@@ -4115,7 +4107,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15" s="1">
         <v>27</v>
@@ -4123,7 +4115,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B16" s="1">
         <v>29</v>
@@ -4131,7 +4123,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1">
         <v>31</v>
@@ -4139,7 +4131,7 @@
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18" s="1">
         <v>33</v>
@@ -4147,7 +4139,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B19" s="1">
         <v>35</v>
@@ -4155,7 +4147,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B20" s="1">
         <v>37</v>
@@ -4163,7 +4155,7 @@
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B21" s="1">
         <v>39</v>
@@ -4171,7 +4163,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B22" s="1">
         <v>41</v>
@@ -4179,7 +4171,7 @@
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B23" s="1">
         <v>43</v>
@@ -4187,7 +4179,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B24" s="1">
         <v>45</v>
@@ -4195,7 +4187,7 @@
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1">
         <v>47</v>
@@ -4203,7 +4195,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1">
         <v>49</v>
@@ -4211,7 +4203,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B27" s="1">
         <v>51</v>
@@ -4219,7 +4211,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B28" s="1">
         <v>53</v>
@@ -4227,7 +4219,7 @@
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B29" s="1">
         <v>55</v>
@@ -4235,7 +4227,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B30" s="1">
         <v>57</v>
@@ -4243,7 +4235,7 @@
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B31" s="1">
         <v>59</v>
@@ -4251,7 +4243,7 @@
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B32" s="1">
         <v>61</v>
@@ -4259,7 +4251,7 @@
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B33" s="1">
         <v>63</v>
@@ -4267,7 +4259,7 @@
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" s="1">
         <v>65</v>
@@ -4283,7 +4275,7 @@
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B36" s="1">
         <v>69</v>
@@ -4291,7 +4283,7 @@
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B37" s="1">
         <v>71</v>
@@ -4299,7 +4291,7 @@
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B38" s="1">
         <v>73</v>
@@ -4307,7 +4299,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B39" s="1">
         <v>75</v>
@@ -4315,7 +4307,7 @@
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B40" s="1">
         <v>77</v>
@@ -4323,7 +4315,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B41" s="1">
         <v>79</v>
@@ -4331,7 +4323,7 @@
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B42" s="1">
         <v>81</v>
@@ -4339,7 +4331,7 @@
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B43" s="1">
         <v>83</v>
@@ -4347,7 +4339,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1">
         <v>85</v>
@@ -4355,7 +4347,7 @@
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B45" s="1">
         <v>87</v>
@@ -4363,7 +4355,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B46" s="1">
         <v>89</v>
@@ -4371,7 +4363,7 @@
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B47" s="1">
         <v>91</v>
@@ -4379,7 +4371,7 @@
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B48" s="1">
         <v>93</v>
@@ -4387,7 +4379,7 @@
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B49" s="1">
         <v>95</v>
@@ -4403,7 +4395,7 @@
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B51" s="1">
         <v>99</v>
@@ -4411,7 +4403,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B52" s="1">
         <v>101</v>
@@ -4419,7 +4411,7 @@
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B53" s="1">
         <v>103</v>
@@ -4427,7 +4419,7 @@
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B54" s="1">
         <v>105</v>
@@ -4435,7 +4427,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B55" s="1">
         <v>107</v>
@@ -4451,7 +4443,7 @@
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B57" s="1">
         <v>111</v>
@@ -4459,7 +4451,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B58" s="1">
         <v>113</v>
@@ -4467,7 +4459,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B59" s="1">
         <v>115</v>
@@ -4475,7 +4467,7 @@
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B60" s="1">
         <v>117</v>
@@ -4483,7 +4475,7 @@
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B61" s="1">
         <v>119</v>
@@ -4491,7 +4483,7 @@
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B62" s="1">
         <v>121</v>
@@ -4499,7 +4491,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B63" s="1">
         <v>123</v>
@@ -4507,7 +4499,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B64" s="1">
         <v>125</v>
@@ -4523,7 +4515,7 @@
     </row>
     <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B66" s="1">
         <v>129</v>
@@ -4539,7 +4531,7 @@
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B68" s="1">
         <v>133</v>
@@ -4547,7 +4539,7 @@
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B69" s="1">
         <v>135</v>
@@ -4555,7 +4547,7 @@
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B70" s="1">
         <v>137</v>
@@ -4563,7 +4555,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B71" s="1">
         <v>139</v>
@@ -4571,7 +4563,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B72" s="1">
         <v>141</v>
@@ -4579,7 +4571,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B73" s="1">
         <v>143</v>
@@ -4587,7 +4579,7 @@
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B74" s="1">
         <v>145</v>
@@ -4603,7 +4595,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B76" s="1">
         <v>149</v>
@@ -4635,7 +4627,7 @@
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B80" s="1">
         <v>157</v>
@@ -4651,7 +4643,7 @@
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B82" s="1">
         <v>161</v>
@@ -4659,7 +4651,7 @@
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B83" s="1">
         <v>163</v>
@@ -4667,7 +4659,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B84" s="1">
         <v>165</v>
@@ -4675,7 +4667,7 @@
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B85" s="1">
         <v>167</v>
@@ -4683,7 +4675,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B86" s="1">
         <v>169</v>
@@ -4691,7 +4683,7 @@
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B87" s="1">
         <v>171</v>
@@ -4699,7 +4691,7 @@
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B88" s="1">
         <v>173</v>
@@ -4707,7 +4699,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B89" s="1">
         <v>175</v>
@@ -4715,7 +4707,7 @@
     </row>
     <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B90" s="1">
         <v>177</v>
@@ -4723,7 +4715,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B91" s="1">
         <v>179</v>
@@ -4731,7 +4723,7 @@
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B92" s="1">
         <v>181</v>
@@ -4739,7 +4731,7 @@
     </row>
     <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B93" s="1">
         <v>183</v>
@@ -4747,7 +4739,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B94" s="1">
         <v>185</v>
@@ -4773,22 +4765,22 @@
         <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4796,7 +4788,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C2">
         <v>-96.577077840188963</v>
@@ -4819,7 +4811,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C3">
         <v>-96.405546054961974</v>
@@ -4842,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C4">
         <v>-97.043011818375987</v>
@@ -4884,22 +4876,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
         <v>340</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>341</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4907,13 +4899,13 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4927,13 +4919,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4947,13 +4939,13 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4967,13 +4959,13 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4987,13 +4979,13 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5007,13 +4999,13 @@
         <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5027,13 +5019,13 @@
         <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
         <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5047,13 +5039,13 @@
         <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5067,13 +5059,13 @@
         <v>402</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -5087,13 +5079,13 @@
         <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5107,13 +5099,13 @@
         <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
         <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -5127,13 +5119,13 @@
         <v>405</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -5147,13 +5139,13 @@
         <v>406</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -5167,13 +5159,13 @@
         <v>501</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5187,13 +5179,13 @@
         <v>502</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5207,13 +5199,13 @@
         <v>503</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C17" t="s">
         <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5227,7 +5219,7 @@
         <v>600</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
@@ -5244,7 +5236,7 @@
         <v>700</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -5261,13 +5253,13 @@
         <v>901</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C20" t="s">
         <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5281,13 +5273,13 @@
         <v>902</v>
       </c>
       <c r="B21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
         <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5301,13 +5293,13 @@
         <v>903</v>
       </c>
       <c r="B22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
         <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5321,13 +5313,13 @@
         <v>1001</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C23" t="s">
         <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5341,13 +5333,13 @@
         <v>1002</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C24" t="s">
         <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5361,13 +5353,13 @@
         <v>1101</v>
       </c>
       <c r="B25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
         <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5381,13 +5373,13 @@
         <v>1102</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
         <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5401,13 +5393,13 @@
         <v>1103</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5421,13 +5413,13 @@
         <v>1201</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C28" t="s">
         <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5441,13 +5433,13 @@
         <v>1202</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C29" t="s">
         <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5461,13 +5453,13 @@
         <v>1301</v>
       </c>
       <c r="B30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
         <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5481,13 +5473,13 @@
         <v>1302</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C31" t="s">
         <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5501,13 +5493,13 @@
         <v>1401</v>
       </c>
       <c r="B32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5521,13 +5513,13 @@
         <v>1402</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5541,13 +5533,13 @@
         <v>1501</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
         <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5561,13 +5553,13 @@
         <v>1502</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
         <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5581,13 +5573,13 @@
         <v>1600</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C36" t="s">
         <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5601,13 +5593,13 @@
         <v>1601</v>
       </c>
       <c r="B37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
         <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5621,13 +5613,13 @@
         <v>1602</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s">
         <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5641,13 +5633,13 @@
         <v>1701</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s">
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5661,13 +5653,13 @@
         <v>1702</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
         <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5681,13 +5673,13 @@
         <v>1703</v>
       </c>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
         <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5701,13 +5693,13 @@
         <v>1801</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
         <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5721,13 +5713,13 @@
         <v>1802</v>
       </c>
       <c r="B43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s">
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5741,7 +5733,7 @@
         <v>1900</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C44" t="s">
         <v>154</v>
@@ -5758,13 +5750,13 @@
         <v>2001</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
         <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5778,13 +5770,13 @@
         <v>2002</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
         <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5798,13 +5790,13 @@
         <v>2111</v>
       </c>
       <c r="B47" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
         <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5818,13 +5810,13 @@
         <v>2112</v>
       </c>
       <c r="B48" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C48" t="s">
         <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5838,13 +5830,13 @@
         <v>2113</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
         <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5858,13 +5850,13 @@
         <v>2201</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C50" t="s">
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5878,13 +5870,13 @@
         <v>2202</v>
       </c>
       <c r="B51" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
         <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5898,13 +5890,13 @@
         <v>2203</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5918,13 +5910,13 @@
         <v>2301</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C53" t="s">
         <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5938,13 +5930,13 @@
         <v>2302</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5958,13 +5950,13 @@
         <v>2401</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5978,13 +5970,13 @@
         <v>2402</v>
       </c>
       <c r="B56" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s">
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5998,13 +5990,13 @@
         <v>2403</v>
       </c>
       <c r="B57" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C57" t="s">
         <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6018,7 +6010,7 @@
         <v>2500</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C58" t="s">
         <v>166</v>
@@ -6035,7 +6027,7 @@
         <v>2600</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -6052,13 +6044,13 @@
         <v>2701</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C60" t="s">
         <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6072,13 +6064,13 @@
         <v>2702</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C61" t="s">
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6092,13 +6084,13 @@
         <v>2703</v>
       </c>
       <c r="B62" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C62" t="s">
         <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6112,7 +6104,7 @@
         <v>2800</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C63" t="s">
         <v>171</v>
@@ -6129,7 +6121,7 @@
         <v>2900</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C64" t="s">
         <v>173</v>
@@ -6146,13 +6138,13 @@
         <v>3001</v>
       </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
         <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6166,13 +6158,13 @@
         <v>3002</v>
       </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s">
         <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6186,13 +6178,13 @@
         <v>3003</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C67" t="s">
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6206,13 +6198,13 @@
         <v>3101</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C68" t="s">
         <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6226,13 +6218,13 @@
         <v>3102</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C69" t="s">
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6246,13 +6238,13 @@
         <v>3103</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s">
         <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6266,13 +6258,13 @@
         <v>3104</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6286,13 +6278,13 @@
         <v>3200</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
         <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6306,13 +6298,13 @@
         <v>3301</v>
       </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6326,13 +6318,13 @@
         <v>3302</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
         <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6346,13 +6338,13 @@
         <v>3401</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C75" t="s">
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6366,13 +6358,13 @@
         <v>3402</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
         <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6386,13 +6378,13 @@
         <v>3501</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C77" t="s">
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6406,13 +6398,13 @@
         <v>3502</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C78" t="s">
         <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6426,13 +6418,13 @@
         <v>3601</v>
       </c>
       <c r="B79" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C79" t="s">
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6446,13 +6438,13 @@
         <v>3602</v>
       </c>
       <c r="B80" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
         <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6466,13 +6458,13 @@
         <v>3701</v>
       </c>
       <c r="B81" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C81" t="s">
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6486,13 +6478,13 @@
         <v>3702</v>
       </c>
       <c r="B82" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C82" t="s">
         <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6506,13 +6498,13 @@
         <v>3800</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C83" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D83" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6526,13 +6518,13 @@
         <v>3900</v>
       </c>
       <c r="B84" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
         <v>195</v>
       </c>
       <c r="D84" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6546,13 +6538,13 @@
         <v>4001</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C85" t="s">
         <v>197</v>
       </c>
       <c r="D85" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6566,13 +6558,13 @@
         <v>4002</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C86" t="s">
         <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6586,7 +6578,7 @@
         <v>4100</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C87" t="s">
         <v>199</v>
@@ -6603,13 +6595,13 @@
         <v>4201</v>
       </c>
       <c r="B88" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C88" t="s">
         <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6623,13 +6615,13 @@
         <v>4202</v>
       </c>
       <c r="B89" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6643,13 +6635,13 @@
         <v>4203</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C90" t="s">
         <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6663,13 +6655,13 @@
         <v>4204</v>
       </c>
       <c r="B91" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C91" t="s">
         <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6683,13 +6675,13 @@
         <v>4205</v>
       </c>
       <c r="B92" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s">
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6703,13 +6695,13 @@
         <v>4301</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C93" t="s">
         <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6723,13 +6715,13 @@
         <v>4302</v>
       </c>
       <c r="B94" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C94" t="s">
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6743,13 +6735,13 @@
         <v>4303</v>
       </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C95" t="s">
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6763,7 +6755,7 @@
         <v>4400</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C96" t="s">
         <v>205</v>
@@ -6780,13 +6772,13 @@
         <v>4501</v>
       </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s">
         <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6800,13 +6792,13 @@
         <v>4502</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C98" t="s">
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6820,13 +6812,13 @@
         <v>4601</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C99" t="s">
         <v>211</v>
       </c>
       <c r="D99" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6840,13 +6832,13 @@
         <v>4602</v>
       </c>
       <c r="B100" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s">
         <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6860,13 +6852,13 @@
         <v>4701</v>
       </c>
       <c r="B101" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C101" t="s">
         <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6880,13 +6872,13 @@
         <v>4702</v>
       </c>
       <c r="B102" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
         <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6900,13 +6892,13 @@
         <v>4801</v>
       </c>
       <c r="B103" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C103" t="s">
         <v>215</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6920,13 +6912,13 @@
         <v>4802</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
         <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6940,13 +6932,13 @@
         <v>4803</v>
       </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C105" t="s">
         <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6960,13 +6952,13 @@
         <v>4901</v>
       </c>
       <c r="B106" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C106" t="s">
         <v>217</v>
       </c>
       <c r="D106" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6980,13 +6972,13 @@
         <v>4902</v>
       </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C107" t="s">
         <v>217</v>
       </c>
       <c r="D107" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -7000,13 +6992,13 @@
         <v>4903</v>
       </c>
       <c r="B108" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C108" t="s">
         <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -7020,13 +7012,13 @@
         <v>4904</v>
       </c>
       <c r="B109" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C109" t="s">
         <v>217</v>
       </c>
       <c r="D109" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7040,13 +7032,13 @@
         <v>5001</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C110" t="s">
         <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -7060,13 +7052,13 @@
         <v>5002</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C111" t="s">
         <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -7080,13 +7072,13 @@
         <v>5003</v>
       </c>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -7100,13 +7092,13 @@
         <v>5004</v>
       </c>
       <c r="B113" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C113" t="s">
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -7120,13 +7112,13 @@
         <v>5005</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -7140,13 +7132,13 @@
         <v>5006</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E115">
         <v>6</v>
@@ -7160,13 +7152,13 @@
         <v>5007</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
         <v>116</v>
       </c>
       <c r="D116" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E116">
         <v>7</v>
@@ -7180,13 +7172,13 @@
         <v>5008</v>
       </c>
       <c r="B117" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
         <v>116</v>
       </c>
       <c r="D117" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E117">
         <v>8</v>
@@ -7200,13 +7192,13 @@
         <v>5009</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C118" t="s">
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E118">
         <v>9</v>
@@ -7220,13 +7212,13 @@
         <v>5010</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
         <v>116</v>
       </c>
       <c r="D119" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -7240,13 +7232,13 @@
         <v>5101</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
         <v>136</v>
       </c>
       <c r="D120" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -7260,13 +7252,13 @@
         <v>5102</v>
       </c>
       <c r="B121" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C121" t="s">
         <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -7280,13 +7272,13 @@
         <v>5103</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
         <v>136</v>
       </c>
       <c r="D122" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -7300,13 +7292,13 @@
         <v>5104</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -7320,13 +7312,13 @@
         <v>5105</v>
       </c>
       <c r="B124" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C124" t="s">
         <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -7340,7 +7332,7 @@
         <v>5200</v>
       </c>
       <c r="B125" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C125" t="s">
         <v>191</v>
@@ -7369,22 +7361,22 @@
         <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7392,7 +7384,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C2">
         <v>2589011.7154791141</v>
@@ -7415,7 +7407,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3">
         <v>2634341.8918661182</v>
@@ -7438,7 +7430,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C4">
         <v>2455815.755846343</v>
